--- a/biology/Médecine/Gevokizumab/Gevokizumab.xlsx
+++ b/biology/Médecine/Gevokizumab/Gevokizumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gevokizumab (ou XOMA 052) est un anticorps monoclonal dirigé contre la fraction bêta de l'interleukine 1 et en cours de test comme médicament, administrée sous forme d'injection mensuelle. 
-Il est encours de test dans le diabète de type 1 et de type 2, la polyarthrite rhumatoïde et dans les maladies cardio-vasculaires[1].
-Lors des formes résistantes d'uvéites de la maladie de Behcet, il permet l'amélioration des symptômes[2].
-Il améliore l'équilibre glycémique lors d'un diabète de type 2[3].
+Il est encours de test dans le diabète de type 1 et de type 2, la polyarthrite rhumatoïde et dans les maladies cardio-vasculaires.
+Lors des formes résistantes d'uvéites de la maladie de Behcet, il permet l'amélioration des symptômes.
+Il améliore l'équilibre glycémique lors d'un diabète de type 2.
 </t>
         </is>
       </c>
